--- a/players.xlsx
+++ b/players.xlsx
@@ -1,17 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
+  <bookViews>
+    <workbookView xWindow="190" yWindow="550" windowWidth="18880" windowHeight="6740" tabRatio="669"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>playerName</t>
   </si>
@@ -28,30 +31,9 @@
     <t>mohit</t>
   </si>
   <si>
-    <t>mfdog@vlkvm.xpo</t>
-  </si>
-  <si>
     <t>vivek</t>
   </si>
   <si>
-    <t>fdsmfdoi@fkdln.sfm</t>
-  </si>
-  <si>
-    <t>01-43-1243</t>
-  </si>
-  <si>
-    <t>eeomdon</t>
-  </si>
-  <si>
-    <t>fergnoire</t>
-  </si>
-  <si>
-    <t>mfgoengio</t>
-  </si>
-  <si>
-    <t>14-35-3546</t>
-  </si>
-  <si>
     <t>dhruvin</t>
   </si>
   <si>
@@ -95,26 +77,90 @@
   </si>
   <si>
     <t>divyesh</t>
+  </si>
+  <si>
+    <t>Rajeev</t>
+  </si>
+  <si>
+    <t>mohit@gmail.com</t>
+  </si>
+  <si>
+    <t>vivek@gmail.com</t>
+  </si>
+  <si>
+    <t>rajeev@gmail.com</t>
+  </si>
+  <si>
+    <t>dhruvin@gmail.com</t>
+  </si>
+  <si>
+    <t>paril@gmail.com</t>
+  </si>
+  <si>
+    <t>jaydeep1@gmail.com</t>
+  </si>
+  <si>
+    <t>ronak@gmail.com</t>
+  </si>
+  <si>
+    <t>parth@gmail.com</t>
+  </si>
+  <si>
+    <t>ankit@gmail.com</t>
+  </si>
+  <si>
+    <t>hardik@gmail.com</t>
+  </si>
+  <si>
+    <t>ravi@gmail.com</t>
+  </si>
+  <si>
+    <t>jaimin@gmail.com</t>
+  </si>
+  <si>
+    <t>darsh@gmail.com</t>
+  </si>
+  <si>
+    <t>milan@gmail.com</t>
+  </si>
+  <si>
+    <t>dax@gmail.com</t>
+  </si>
+  <si>
+    <t>chirag@gmail.com</t>
+  </si>
+  <si>
+    <t>mahek@gmail.com</t>
+  </si>
+  <si>
+    <t>divyesh@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="mm-dd-yyyy"/>
+    <numFmt numFmtId="164" formatCode="mm\-dd\-yyyy"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="2">
@@ -122,39 +168,43 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -344,24 +394,29 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="21.75"/>
-    <col customWidth="1" min="3" max="3" width="24.13"/>
+    <col min="2" max="2" width="21.7265625" customWidth="1"/>
+    <col min="3" max="3" width="24.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -375,259 +430,279 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="1">
-        <v>2.13546513545E11</v>
-      </c>
-      <c r="C2" s="1" t="s">
+        <v>4567889856</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="2">
+        <v>33943</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="2">
-        <v>44603.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="B3" s="1">
+        <v>8756879888</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="4">
+        <v>31149</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="1">
+        <v>8787946462</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="4">
+        <v>31499</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1">
-        <v>2.31354556E8</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="B5" s="1">
+        <v>9876124024</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="4">
+        <v>26038</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="B6" s="1">
+        <v>9948146514</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="4">
+        <v>26081</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
+      <c r="B7" s="1">
+        <v>7981645142</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="4">
+        <v>33838</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B8" s="1">
+        <v>7519785126</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="4">
+        <v>33001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="B9" s="1">
+        <v>4175917452</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="4">
+        <v>32290</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="B10" s="1">
+        <v>4254945146</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="4">
+        <v>29531</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="s">
+      <c r="B11" s="1">
+        <v>7857812111</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="4">
+        <v>31187</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="1">
-        <v>2.13546513545E11</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="2">
-        <v>44603.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="s">
+      <c r="B12" s="1">
+        <v>8978989789</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="4">
+        <v>35203</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="1">
-        <v>2.31354556E8</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="s">
+      <c r="B13" s="1">
+        <v>9879854698</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="4">
+        <v>35926</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="s">
+      <c r="B14" s="1">
+        <v>9879845646</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="4">
+        <v>33737</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="1">
-        <v>2.13546513545E11</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="2">
-        <v>44603.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="s">
+      <c r="B15" s="1">
+        <v>8978656564</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="4">
+        <v>36157</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A16" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="1">
-        <v>2.31354556E8</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="s">
+      <c r="B16" s="1">
+        <v>8978979879</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="4">
+        <v>36524</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="s">
+      <c r="B17" s="1">
+        <v>8646446243</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="4">
+        <v>36096</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A18" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="1">
-        <v>2.13546513545E11</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="2">
-        <v>44603.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="s">
+      <c r="B18" s="1">
+        <v>9878968645</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="4">
+        <v>35427</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A19" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="1">
-        <v>2.31354556E8</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="1">
-        <v>2.13546513545E11</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="2">
-        <v>44603.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" s="1">
-        <v>2.31354556E8</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" s="1">
-        <v>2.13546513545E11</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" s="2">
-        <v>44603.0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="1">
-        <v>2.31354556E8</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>12</v>
+      <c r="B19" s="1">
+        <v>9876564563</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="4">
+        <v>34925</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="C4" r:id="rId3"/>
+    <hyperlink ref="C5" r:id="rId4"/>
+    <hyperlink ref="C6" r:id="rId5"/>
+    <hyperlink ref="C7" r:id="rId6"/>
+    <hyperlink ref="C8" r:id="rId7"/>
+    <hyperlink ref="C9" r:id="rId8"/>
+    <hyperlink ref="C10" r:id="rId9"/>
+    <hyperlink ref="C11" r:id="rId10"/>
+    <hyperlink ref="C12" r:id="rId11"/>
+    <hyperlink ref="C13" r:id="rId12"/>
+    <hyperlink ref="C14" r:id="rId13"/>
+    <hyperlink ref="C15" r:id="rId14"/>
+    <hyperlink ref="C16" r:id="rId15"/>
+    <hyperlink ref="C17" r:id="rId16"/>
+    <hyperlink ref="C18" r:id="rId17"/>
+    <hyperlink ref="C19" r:id="rId18"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>